--- a/Export/StatistikExport.xlsx
+++ b/Export/StatistikExport.xlsx
@@ -8,13 +8,14 @@
     <sheet name="Bücher" sheetId="1" r:id="rId1"/>
     <sheet name="Strafen" sheetId="2" r:id="rId3"/>
     <sheet name="Nachrichten" sheetId="3" r:id="rId4"/>
+    <sheet name="Reservierungen" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Titel</t>
   </si>
@@ -124,31 +125,34 @@
     <t>Rückgabe</t>
   </si>
   <si>
+    <t>Erika Musterfrau</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Max Mustermann</t>
+  </si>
+  <si>
+    <t>Paul Becker</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Anna Webber</t>
+  </si>
+  <si>
+    <t>Nachricht</t>
+  </si>
+  <si>
+    <t>AbsendeDatum</t>
+  </si>
+  <si>
     <t>Torstoson Torston</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Gustav Klaus</t>
-  </si>
-  <si>
-    <t>Max Mustermann</t>
-  </si>
-  <si>
-    <t>Paul Becker</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Anna Webber</t>
-  </si>
-  <si>
-    <t>Nachricht</t>
-  </si>
-  <si>
-    <t>AbsendeDatum</t>
   </si>
   <si>
     <t xml:space="preserve">ACHTUNG:
@@ -156,6 +160,9 @@
 Die Strafe beträgt: €5.00</t>
   </si>
   <si>
+    <t>Gustav Klaus</t>
+  </si>
+  <si>
     <t xml:space="preserve">ACHTUNG:
 Sie haben noch ein Buch, welches Sie zurückgeben müssen.
 Die Strafe beträgt: €7.50</t>
@@ -184,6 +191,15 @@
     <t xml:space="preserve">ACHTUNG:
 Sie haben noch ein Buch, welches Sie zurückgeben müssen.
 Die Strafe beträgt: €20.00</t>
+  </si>
+  <si>
+    <t>Reservierungsdatum</t>
+  </si>
+  <si>
+    <t>Moritz Müller</t>
+  </si>
+  <si>
+    <t>Sophie Schulz</t>
   </si>
 </sst>
 </file>
@@ -269,6 +285,18 @@
 </table>
 </file>
 
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:C3">
+  <autoFilter ref="A1:C3"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Kunde"/>
+    <tableColumn id="2" name="Titel"/>
+    <tableColumn id="3" name="Reservierungsdatum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D21"/>
@@ -750,10 +778,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0">
         <v>45670</v>
@@ -761,10 +789,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0">
         <v>45671</v>
@@ -772,10 +800,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0">
         <v>45678</v>
@@ -786,7 +814,7 @@
         <v>39</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0">
         <v>45672</v>
@@ -797,7 +825,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="0">
         <v>45679</v>
@@ -808,7 +836,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0">
         <v>45686</v>
@@ -819,7 +847,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="0">
         <v>45658</v>
@@ -830,7 +858,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" s="0">
         <v>45665</v>
@@ -841,7 +869,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="0">
         <v>45672</v>
@@ -852,7 +880,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0">
         <v>45679</v>
@@ -863,7 +891,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="0">
         <v>45686</v>
@@ -874,7 +902,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="0">
         <v>45658</v>
@@ -885,7 +913,7 @@
         <v>42</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="0">
         <v>45665</v>
@@ -896,7 +924,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15" s="0">
         <v>45672</v>
@@ -907,7 +935,7 @@
         <v>42</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0">
         <v>45679</v>
@@ -918,7 +946,7 @@
         <v>42</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="0">
         <v>45686</v>
@@ -929,7 +957,7 @@
         <v>42</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="0">
         <v>45693</v>
@@ -940,10 +968,59 @@
         <v>42</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" s="0">
         <v>45700</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="0">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="0">
+        <v>45675</v>
       </c>
     </row>
   </sheetData>
